--- a/data/ccg/ccg-Q4-2017.xlsx
+++ b/data/ccg/ccg-Q4-2017.xlsx
@@ -92,10 +92,10 @@
     <t>23.1.2.OTC</t>
   </si>
   <si>
+    <t>23.1.2.ETD</t>
+  </si>
+  <si>
     <t>23.2.1.OTC</t>
-  </si>
-  <si>
-    <t>23.1.2.ETD</t>
   </si>
   <si>
     <t>23.2.1.ETD</t>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>92012103174</v>
       </c>
       <c r="AB2" t="n">
-        <v>92012103174</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>20491291167</v>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1561284611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1561284611</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>438697667062</v>
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>6043214318</v>
       </c>
       <c r="AB4" t="n">
-        <v>6043214318</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>61550307</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>667858</v>
       </c>
       <c r="AB5" t="n">
-        <v>667858</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
